--- a/sources/Goo_data.xlsx
+++ b/sources/Goo_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="763">
   <si>
     <t>language_no</t>
   </si>
@@ -1915,9 +1915,6 @@
     <t>bha</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>TR</t>
   </si>
   <si>
@@ -1936,51 +1933,18 @@
     <t>kee</t>
   </si>
   <si>
-    <t>POSSSUBJ</t>
-  </si>
-  <si>
     <t>lan</t>
   </si>
   <si>
     <t>zuwee</t>
   </si>
   <si>
-    <t>DO_S</t>
-  </si>
-  <si>
-    <t>bha_S</t>
-  </si>
-  <si>
-    <t>S_gon</t>
-  </si>
-  <si>
-    <t>S_bha</t>
-  </si>
-  <si>
     <t>lie</t>
   </si>
   <si>
-    <t>S_lie</t>
-  </si>
-  <si>
-    <t>S_ta</t>
-  </si>
-  <si>
-    <t>S_gi</t>
-  </si>
-  <si>
-    <t>S_lan</t>
-  </si>
-  <si>
-    <t>ta_S</t>
-  </si>
-  <si>
     <t>wunka</t>
   </si>
   <si>
-    <t>S_wunka</t>
-  </si>
-  <si>
     <t>ka</t>
   </si>
   <si>
@@ -1990,42 +1954,12 @@
     <t>zuu_ka</t>
   </si>
   <si>
-    <t>gon_S</t>
-  </si>
-  <si>
-    <t>gi_POSSSUBJ</t>
-  </si>
-  <si>
-    <t>S_ka</t>
-  </si>
-  <si>
-    <t>postverbalNP</t>
-  </si>
-  <si>
-    <t>DO_postverbalNP</t>
-  </si>
-  <si>
-    <t>kee_POSSSUBJ</t>
-  </si>
-  <si>
-    <t>POSSSUBJ_bha</t>
-  </si>
-  <si>
     <t>zi</t>
   </si>
   <si>
-    <t>S_zi</t>
-  </si>
-  <si>
     <t>zia</t>
   </si>
   <si>
-    <t>S_zia</t>
-  </si>
-  <si>
-    <t>bha_POSSSUBJ</t>
-  </si>
-  <si>
     <t>zuu_ta</t>
   </si>
   <si>
@@ -2038,9 +1972,6 @@
     <t>ken</t>
   </si>
   <si>
-    <t>S_ken</t>
-  </si>
-  <si>
     <t>zuwee_bha</t>
   </si>
   <si>
@@ -2324,6 +2255,75 @@
   </si>
   <si>
     <t>Предикативное выражение получено (CV, "делать стыд"), но оно используется одноместно, а причину стыда можно выразить только в отдельном предложении</t>
+  </si>
+  <si>
+    <t>SBJ</t>
+  </si>
+  <si>
+    <t>POSS.SBJ</t>
+  </si>
+  <si>
+    <t>bha_POSS.SBJ</t>
+  </si>
+  <si>
+    <t>DO_SBJ</t>
+  </si>
+  <si>
+    <t>SBJ_gon</t>
+  </si>
+  <si>
+    <t>SBJ_bha</t>
+  </si>
+  <si>
+    <t>SBJ_lie</t>
+  </si>
+  <si>
+    <t>SBJ_ta</t>
+  </si>
+  <si>
+    <t>SBJ_gi</t>
+  </si>
+  <si>
+    <t>SBJ_lan</t>
+  </si>
+  <si>
+    <t>SBJ_wunka</t>
+  </si>
+  <si>
+    <t>SBJ_ka</t>
+  </si>
+  <si>
+    <t>SBJ_zi</t>
+  </si>
+  <si>
+    <t>SBJ_zia</t>
+  </si>
+  <si>
+    <t>SBJ_ken</t>
+  </si>
+  <si>
+    <t>bha_SBJ</t>
+  </si>
+  <si>
+    <t>ta_SBJ</t>
+  </si>
+  <si>
+    <t>gon_SBJ</t>
+  </si>
+  <si>
+    <t>gi_POSS.SBJ</t>
+  </si>
+  <si>
+    <t>DO_POSTVERBAL.NP</t>
+  </si>
+  <si>
+    <t>kee_POSS.SBJ</t>
+  </si>
+  <si>
+    <t>POSTVERBAL.NP</t>
+  </si>
+  <si>
+    <t>POSS.SBJ_bha</t>
   </si>
 </sst>
 </file>
@@ -2401,7 +2401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -2425,7 +2425,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2708,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2823,23 +2822,23 @@
         <v>624</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>669</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -2870,23 +2869,23 @@
         <v>625</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>670</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -2914,16 +2913,16 @@
         <v>538</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>638</v>
+        <v>744</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2959,14 +2958,16 @@
         <v>539</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K5" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -3004,20 +3005,22 @@
       <c r="I6" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K6" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>671</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="5" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -3045,7 +3048,7 @@
         <v>541</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>625</v>
@@ -3054,7 +3057,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>639</v>
+        <v>745</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -3062,7 +3065,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -3090,16 +3093,16 @@
         <v>542</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>641</v>
+        <v>746</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -3135,14 +3138,16 @@
         <v>543</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -3178,24 +3183,26 @@
         <v>544</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K10" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>672</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="5"/>
+      <c r="S10" s="5" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -3225,20 +3232,22 @@
       <c r="I11" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K11" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>673</v>
-      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -3266,26 +3275,26 @@
         <v>613</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>674</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -3313,26 +3322,26 @@
         <v>545</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>675</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="5"/>
+      <c r="S13" s="5" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -3360,24 +3369,26 @@
         <v>546</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K14" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>676</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="5" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3407,20 +3418,22 @@
       <c r="I15" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K15" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
-        <v>677</v>
-      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="5" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3450,20 +3463,22 @@
       <c r="I16" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
-        <v>678</v>
-      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3491,14 +3506,16 @@
         <v>548</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K17" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -3534,16 +3551,16 @@
         <v>614</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>644</v>
+        <v>749</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3579,26 +3596,26 @@
         <v>537</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>679</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="5"/>
+      <c r="S19" s="5" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -3626,24 +3643,26 @@
         <v>549</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K20" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>680</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="5" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3673,20 +3692,22 @@
       <c r="I21" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L21" s="5"/>
-      <c r="M21" s="5" t="s">
-        <v>681</v>
-      </c>
+      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="5"/>
+      <c r="S21" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
@@ -3714,16 +3735,16 @@
         <v>615</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>641</v>
+        <v>746</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3731,7 +3752,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3759,7 +3780,7 @@
         <v>616</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>625</v>
@@ -3768,17 +3789,17 @@
         <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>682</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -3808,20 +3829,22 @@
       <c r="I24" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K24" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L24" s="5"/>
-      <c r="M24" s="5" t="s">
-        <v>683</v>
-      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="5" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3851,20 +3874,22 @@
       <c r="I25" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K25" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L25" s="5"/>
-      <c r="M25" s="5" t="s">
-        <v>684</v>
-      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -3892,26 +3917,26 @@
         <v>617</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>685</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
+      <c r="S26" s="5" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
@@ -3939,14 +3964,16 @@
         <v>553</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K27" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -3982,24 +4009,26 @@
         <v>554</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K28" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>686</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="5"/>
+      <c r="S28" s="5" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
@@ -4027,16 +4056,16 @@
         <v>555</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>638</v>
+        <v>744</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -4072,26 +4101,26 @@
         <v>556</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>687</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="5" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -4121,20 +4150,22 @@
       <c r="I31" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="J31" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K31" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L31" s="5"/>
-      <c r="M31" s="5" t="s">
-        <v>688</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -4162,14 +4193,16 @@
         <v>557</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K32" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4205,24 +4238,26 @@
         <v>558</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J33" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K33" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>689</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -4250,24 +4285,26 @@
         <v>558</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K34" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>690</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="5"/>
+      <c r="S34" s="5" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
@@ -4295,24 +4332,26 @@
         <v>559</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J35" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K35" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>691</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="5" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -4342,20 +4381,22 @@
       <c r="I36" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="J36" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K36" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L36" s="5"/>
-      <c r="M36" s="5" t="s">
-        <v>692</v>
-      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="5" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -4383,24 +4424,26 @@
         <v>546</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K37" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>693</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="5"/>
+      <c r="S37" s="5" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
@@ -4428,7 +4471,7 @@
         <v>560</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>625</v>
@@ -4437,17 +4480,17 @@
         <v>9</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>694</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
@@ -4475,26 +4518,26 @@
         <v>537</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>695</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -4522,14 +4565,16 @@
         <v>561</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K40" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -4567,20 +4612,22 @@
       <c r="I41" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="J41" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L41" s="5"/>
-      <c r="M41" s="5" t="s">
-        <v>696</v>
-      </c>
+      <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="5"/>
+      <c r="S41" s="5" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
@@ -4608,24 +4655,26 @@
         <v>549</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K42" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>697</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="5"/>
+      <c r="S42" s="5" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
@@ -4653,24 +4702,26 @@
         <v>562</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K43" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>698</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -4698,24 +4749,26 @@
         <v>549</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K44" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>699</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -4743,14 +4796,16 @@
         <v>563</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K45" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4786,14 +4841,16 @@
         <v>564</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J46" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K46" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4829,26 +4886,26 @@
         <v>565</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>633</v>
+        <v>741</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>700</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -4878,20 +4935,22 @@
       <c r="I48" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="J48" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K48" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L48" s="5"/>
-      <c r="M48" s="5" t="s">
-        <v>701</v>
-      </c>
+      <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="5"/>
+      <c r="S48" s="5" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
@@ -4919,26 +4978,26 @@
         <v>566</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>702</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -4966,14 +5025,16 @@
         <v>567</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K50" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -5009,14 +5070,16 @@
         <v>568</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K51" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -5055,23 +5118,23 @@
         <v>624</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>654</v>
+        <v>761</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>703</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -5101,20 +5164,22 @@
       <c r="I53" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J53" s="5"/>
+      <c r="J53" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K53" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L53" s="5"/>
-      <c r="M53" s="5" t="s">
-        <v>704</v>
-      </c>
+      <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="5"/>
+      <c r="S53" s="5" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
@@ -5142,26 +5207,26 @@
         <v>569</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>705</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
+      <c r="S54" s="5" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
@@ -5189,26 +5254,26 @@
         <v>570</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>706</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
+      <c r="S55" s="5" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
@@ -5236,24 +5301,26 @@
         <v>571</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K56" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>707</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="5"/>
+      <c r="S56" s="5" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
@@ -5283,20 +5350,22 @@
       <c r="I57" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J57" s="5"/>
+      <c r="J57" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K57" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L57" s="5"/>
-      <c r="M57" s="5" t="s">
-        <v>708</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -5326,20 +5395,22 @@
       <c r="I58" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J58" s="5"/>
+      <c r="J58" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L58" s="5"/>
-      <c r="M58" s="5" t="s">
-        <v>709</v>
-      </c>
+      <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="5" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
@@ -5367,26 +5438,26 @@
         <v>573</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>633</v>
+        <v>741</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>710</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
+      <c r="S59" s="5" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -5414,26 +5485,26 @@
         <v>574</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>633</v>
+        <v>741</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>625</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>711</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="5" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -5461,16 +5532,16 @@
         <v>618</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>659</v>
+        <v>752</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -5506,26 +5577,26 @@
         <v>575</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>712</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="5" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -5553,26 +5624,26 @@
         <v>619</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>713</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="5"/>
+      <c r="S63" s="5" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
@@ -5600,14 +5671,16 @@
         <v>576</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K64" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -5643,7 +5716,7 @@
         <v>620</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>625</v>
@@ -5652,17 +5725,17 @@
         <v>9</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>714</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -5690,26 +5763,26 @@
         <v>575</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>715</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="5" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -5737,24 +5810,26 @@
         <v>577</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K67" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>716</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="5"/>
+      <c r="S67" s="5" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
@@ -5785,23 +5860,23 @@
         <v>625</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>633</v>
+        <v>741</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>717</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -5829,14 +5904,16 @@
         <v>579</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K69" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -5872,24 +5949,26 @@
         <v>577</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K70" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>718</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="5"/>
+      <c r="S70" s="5" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
@@ -5917,24 +5996,26 @@
         <v>546</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K71" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M71" s="5" t="s">
-        <v>719</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="5"/>
+      <c r="S71" s="5" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
@@ -5962,14 +6043,16 @@
         <v>580</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K72" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -6005,14 +6088,16 @@
         <v>581</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K73" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -6048,26 +6133,26 @@
         <v>582</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>720</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
+      <c r="S74" s="5" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -6095,26 +6180,26 @@
         <v>556</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="M75" s="5" t="s">
-        <v>721</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="5"/>
+      <c r="S75" s="5" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
@@ -6142,26 +6227,26 @@
         <v>583</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K76" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>722</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="5"/>
+      <c r="S76" s="5" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
@@ -6189,26 +6274,26 @@
         <v>584</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="M77" s="5" t="s">
-        <v>723</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
+      <c r="S77" s="5" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
@@ -6236,14 +6321,16 @@
         <v>585</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J78" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K78" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -6279,24 +6366,26 @@
         <v>586</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K79" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>724</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="5"/>
+      <c r="S79" s="5" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
@@ -6326,20 +6415,22 @@
       <c r="I80" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J80" s="5"/>
+      <c r="J80" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K80" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L80" s="5"/>
-      <c r="M80" s="5" t="s">
-        <v>725</v>
-      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
+      <c r="S80" s="5" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
@@ -6367,26 +6458,26 @@
         <v>621</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="M81" s="5" t="s">
-        <v>726</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -6414,16 +6505,16 @@
         <v>587</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>642</v>
+        <v>747</v>
       </c>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -6459,7 +6550,7 @@
         <v>588</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>625</v>
@@ -6468,7 +6559,7 @@
         <v>9</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>639</v>
+        <v>745</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -6504,26 +6595,26 @@
         <v>589</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>727</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -6551,26 +6642,26 @@
         <v>622</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="M85" s="5" t="s">
-        <v>728</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
@@ -6598,14 +6689,16 @@
         <v>590</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K86" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -6641,26 +6734,26 @@
         <v>569</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="K87" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>729</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
+      <c r="S87" s="5" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
@@ -6688,14 +6781,16 @@
         <v>591</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J88" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K88" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -6733,20 +6828,22 @@
       <c r="I89" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J89" s="5"/>
+      <c r="J89" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K89" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L89" s="5"/>
-      <c r="M89" s="5" t="s">
-        <v>730</v>
-      </c>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="5" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -6774,26 +6871,26 @@
         <v>592</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="K90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>731</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="5" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -6821,26 +6918,26 @@
         <v>556</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>732</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
+      <c r="S91" s="5" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
@@ -6868,7 +6965,7 @@
         <v>593</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>625</v>
@@ -6877,17 +6974,17 @@
         <v>9</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>733</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
@@ -6917,20 +7014,22 @@
       <c r="I93" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J93" s="5"/>
+      <c r="J93" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K93" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L93" s="5"/>
-      <c r="M93" s="5" t="s">
-        <v>734</v>
-      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
+      <c r="S93" s="5" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
@@ -6958,14 +7057,16 @@
         <v>594</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K94" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -7003,20 +7104,22 @@
       <c r="I95" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J95" s="5"/>
+      <c r="J95" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K95" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L95" s="5"/>
-      <c r="M95" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
+      <c r="S95" s="5" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -7044,14 +7147,16 @@
         <v>595</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J96" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K96" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -7087,7 +7192,7 @@
         <v>596</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>625</v>
@@ -7096,17 +7201,17 @@
         <v>9</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>736</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
+      <c r="S97" s="5" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
@@ -7134,26 +7239,26 @@
         <v>597</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>737</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="5" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
@@ -7183,20 +7288,22 @@
       <c r="I99" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J99" s="5"/>
+      <c r="J99" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K99" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L99" s="5"/>
-      <c r="M99" s="5" t="s">
-        <v>738</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="5" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
@@ -7226,20 +7333,22 @@
       <c r="I100" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J100" s="5"/>
+      <c r="J100" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K100" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L100" s="5"/>
-      <c r="M100" s="5" t="s">
-        <v>739</v>
-      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
@@ -7269,20 +7378,22 @@
       <c r="I101" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J101" s="5"/>
+      <c r="J101" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K101" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L101" s="5"/>
-      <c r="M101" s="5" t="s">
-        <v>740</v>
-      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="5" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -7312,20 +7423,22 @@
       <c r="I102" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J102" s="5"/>
+      <c r="J102" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K102" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L102" s="5"/>
-      <c r="M102" s="5" t="s">
-        <v>741</v>
-      </c>
+      <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
+      <c r="S102" s="5" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
@@ -7353,14 +7466,16 @@
         <v>600</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K103" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -7396,24 +7511,26 @@
         <v>601</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K104" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M104" s="5" t="s">
-        <v>742</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
+      <c r="S104" s="5" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
@@ -7443,20 +7560,22 @@
       <c r="I105" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J105" s="5"/>
+      <c r="J105" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K105" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L105" s="5"/>
-      <c r="M105" s="5" t="s">
-        <v>743</v>
-      </c>
+      <c r="M105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="5"/>
+      <c r="S105" s="5" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
@@ -7484,14 +7603,16 @@
         <v>559</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K106" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -7527,14 +7648,16 @@
         <v>602</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K107" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -7570,7 +7693,7 @@
         <v>603</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>625</v>
@@ -7579,17 +7702,17 @@
         <v>9</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="M108" s="5" t="s">
-        <v>744</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="5"/>
+      <c r="S108" s="5" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
@@ -7617,14 +7740,16 @@
         <v>604</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K109" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -7660,24 +7785,26 @@
         <v>605</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K110" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="M110" s="5" t="s">
-        <v>745</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7705,14 +7832,16 @@
         <v>606</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>740</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="K111" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -7720,7 +7849,7 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5"/>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -7750,20 +7879,22 @@
       <c r="I112" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J112" s="5"/>
+      <c r="J112" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K112" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L112" s="5"/>
-      <c r="M112" s="5" t="s">
-        <v>746</v>
-      </c>
+      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -7793,20 +7924,22 @@
       <c r="I113" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J113" s="5"/>
+      <c r="J113" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K113" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L113" s="5"/>
-      <c r="M113" s="5" t="s">
-        <v>747</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="5" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -7834,26 +7967,26 @@
         <v>607</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>633</v>
+        <v>741</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="M114" s="5" t="s">
-        <v>748</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -7881,26 +8014,26 @@
         <v>623</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="M115" s="5" t="s">
-        <v>749</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -7930,20 +8063,22 @@
       <c r="I116" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J116" s="5"/>
+      <c r="J116" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K116" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L116" s="5"/>
-      <c r="M116" s="5" t="s">
-        <v>750</v>
-      </c>
+      <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -7973,20 +8108,22 @@
       <c r="I117" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J117" s="5"/>
+      <c r="J117" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K117" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L117" s="5"/>
-      <c r="M117" s="5" t="s">
-        <v>751</v>
-      </c>
+      <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -8014,26 +8151,26 @@
         <v>609</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>625</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>752</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -8063,20 +8200,22 @@
       <c r="I119" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J119" s="5"/>
+      <c r="J119" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K119" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L119" s="5"/>
-      <c r="M119" s="5" t="s">
-        <v>753</v>
-      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
+      <c r="S119" s="5" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
@@ -8104,26 +8243,26 @@
         <v>573</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>633</v>
+        <v>741</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>754</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="5" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -8153,20 +8292,22 @@
       <c r="I121" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J121" s="5"/>
+      <c r="J121" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K121" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L121" s="5"/>
-      <c r="M121" s="5" t="s">
-        <v>755</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="5" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -8196,20 +8337,22 @@
       <c r="I122" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J122" s="5"/>
+      <c r="J122" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K122" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L122" s="5"/>
-      <c r="M122" s="5" t="s">
-        <v>756</v>
-      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
+      <c r="S122" s="5" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
@@ -8239,20 +8382,22 @@
       <c r="I123" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J123" s="5"/>
+      <c r="J123" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K123" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L123" s="5"/>
-      <c r="M123" s="5" t="s">
-        <v>757</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -8282,20 +8427,22 @@
       <c r="I124" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J124" s="5"/>
+      <c r="J124" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K124" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L124" s="5"/>
-      <c r="M124" s="5" t="s">
-        <v>755</v>
-      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
+      <c r="S124" s="5" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
@@ -8325,20 +8472,22 @@
       <c r="I125" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J125" s="5"/>
+      <c r="J125" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L125" s="5"/>
-      <c r="M125" s="5" t="s">
-        <v>758</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="5" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -8368,20 +8517,22 @@
       <c r="I126" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J126" s="5"/>
+      <c r="J126" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K126" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L126" s="5"/>
-      <c r="M126" s="5" t="s">
-        <v>757</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="5" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -8411,20 +8562,22 @@
       <c r="I127" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J127" s="5"/>
+      <c r="J127" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K127" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L127" s="5"/>
-      <c r="M127" s="5" t="s">
-        <v>759</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
+      <c r="S127" s="5" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
@@ -8454,20 +8607,22 @@
       <c r="I128" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J128" s="5"/>
+      <c r="J128" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K128" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L128" s="5"/>
-      <c r="M128" s="5" t="s">
-        <v>755</v>
-      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -8497,20 +8652,22 @@
       <c r="I129" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J129" s="5"/>
+      <c r="J129" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K129" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L129" s="5"/>
-      <c r="M129" s="5" t="s">
-        <v>760</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
+      <c r="S129" s="5" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
@@ -8538,26 +8695,26 @@
         <v>611</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="K130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="M130" s="5" t="s">
-        <v>761</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
@@ -8587,20 +8744,22 @@
       <c r="I131" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="J131" s="5"/>
+      <c r="J131" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="K131" s="5" t="s">
         <v>540</v>
       </c>
       <c r="L131" s="5"/>
-      <c r="M131" s="5" t="s">
-        <v>762</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>739</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>
